--- a/data/dataframe_package_groups.xlsx
+++ b/data/dataframe_package_groups.xlsx
@@ -14,9 +14,192 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="62">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>selection_text</t>
+  </si>
+  <si>
+    <t>save_text</t>
+  </si>
+  <si>
+    <t>display_type</t>
+  </si>
+  <si>
+    <t>is_recurring_subscription</t>
+  </si>
+  <si>
+    <t>subs</t>
+  </si>
   <si>
     <t>steam_appid</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>Buy My Lovely Girls - Artbook 18+</t>
+  </si>
+  <si>
+    <t>Buy Plum Bun Reformatted</t>
+  </si>
+  <si>
+    <t>Buy The Zombie Smasher</t>
+  </si>
+  <si>
+    <t>Buy Size It</t>
+  </si>
+  <si>
+    <t>Buy Jean and Josie</t>
+  </si>
+  <si>
+    <t>Buy Ryzer: The Reflectors Path</t>
+  </si>
+  <si>
+    <t>Buy Spooky Story</t>
+  </si>
+  <si>
+    <t>Buy Memory Puzzle - Sexy Fairies ArtBook</t>
+  </si>
+  <si>
+    <t>Buy Bridge to Another World: Christmas Flight Collector's Edition</t>
+  </si>
+  <si>
+    <t>Buy Jigsaw Puzzle Beach Season</t>
+  </si>
+  <si>
+    <t>Buy Royal Jigsaw</t>
+  </si>
+  <si>
+    <t>Buy Holiday Jigsaw Christmas</t>
+  </si>
+  <si>
+    <t>Buy Pirate's Solitaire</t>
+  </si>
+  <si>
+    <t>Buy Go Fetch!</t>
+  </si>
+  <si>
+    <t>Buy Cat Adventure</t>
+  </si>
+  <si>
+    <t>Buy Mirror 2: Project X - Melody of Admiration OST</t>
+  </si>
+  <si>
+    <t>Buy Mirror 2: Project X - Cosplay Album</t>
+  </si>
+  <si>
+    <t>Buy Squarena</t>
+  </si>
+  <si>
+    <t>Buy Cute BAR Soundtrack</t>
+  </si>
+  <si>
+    <t>Buy Touhou Monster TD ~ Nagae Iku DLC</t>
+  </si>
+  <si>
+    <t>Buy My Cute Girls Soundtrack</t>
+  </si>
+  <si>
+    <t>Buy 巨 ~Gigantify~</t>
+  </si>
+  <si>
+    <t>Buy Santa Jump</t>
+  </si>
+  <si>
+    <t>Buy My Cute Girls - Artbook 18+</t>
+  </si>
+  <si>
+    <t>Buy DRAWER</t>
+  </si>
+  <si>
+    <t>Select a purchase option</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>[{'packageid': 669127, 'percent_savings_text': ' ', 'percent_savings': 0, 'option_text': 'My Lovely Girls - Artbook 18+ - 3,29€', 'option_description': '', 'can_get_free_license': '0', 'is_free_license': False, 'price_in_cents_with_discount': 329}]</t>
+  </si>
+  <si>
+    <t>[{'packageid': 669130, 'percent_savings_text': ' ', 'percent_savings': 0, 'option_text': 'Plum Bun Reformatted - 1,59€', 'option_description': '', 'can_get_free_license': '0', 'is_free_license': False, 'price_in_cents_with_discount': 159}]</t>
+  </si>
+  <si>
+    <t>[{'packageid': 669148, 'percent_savings_text': ' ', 'percent_savings': 0, 'option_text': 'The Zombie Smasher - 0,79€', 'option_description': '', 'can_get_free_license': '0', 'is_free_license': False, 'price_in_cents_with_discount': 79}]</t>
+  </si>
+  <si>
+    <t>[{'packageid': 669156, 'percent_savings_text': ' ', 'percent_savings': 0, 'option_text': 'Size It - 24,99€', 'option_description': '', 'can_get_free_license': '0', 'is_free_license': False, 'price_in_cents_with_discount': 2499}]</t>
+  </si>
+  <si>
+    <t>[{'packageid': 669162, 'percent_savings_text': ' ', 'percent_savings': 0, 'option_text': 'Jean and Josie - 8,19€', 'option_description': '', 'can_get_free_license': '0', 'is_free_license': False, 'price_in_cents_with_discount': 819}]</t>
+  </si>
+  <si>
+    <t>[{'packageid': 669169, 'percent_savings_text': ' ', 'percent_savings': 0, 'option_text': 'Ryzer: The Reflectors Path - 0,79€', 'option_description': '', 'can_get_free_license': '0', 'is_free_license': False, 'price_in_cents_with_discount': 79}]</t>
+  </si>
+  <si>
+    <t>[{'packageid': 668887, 'percent_savings_text': ' ', 'percent_savings': 0, 'option_text': 'Spooky Story - 8,19€', 'option_description': '', 'can_get_free_license': '0', 'is_free_license': False, 'price_in_cents_with_discount': 819}]</t>
+  </si>
+  <si>
+    <t>[{'packageid': 668921, 'percent_savings_text': ' ', 'percent_savings': 0, 'option_text': 'Memory Puzzle - Sexy Fairies ArtBook - 0,79€', 'option_description': '', 'can_get_free_license': '0', 'is_free_license': False, 'price_in_cents_with_discount': 79}]</t>
+  </si>
+  <si>
+    <t>[{'packageid': 668942, 'percent_savings_text': ' ', 'percent_savings': 0, 'option_text': "Bridge to Another World: Christmas Flight Collector's Edition - 11,59€", 'option_description': '', 'can_get_free_license': '0', 'is_free_license': False, 'price_in_cents_with_discount': 1159}]</t>
+  </si>
+  <si>
+    <t>[{'packageid': 668983, 'percent_savings_text': ' ', 'percent_savings': 0, 'option_text': 'Jigsaw Puzzle Beach Season - 3,99€', 'option_description': '', 'can_get_free_license': '0', 'is_free_license': False, 'price_in_cents_with_discount': 399}]</t>
+  </si>
+  <si>
+    <t>[{'packageid': 668995, 'percent_savings_text': ' ', 'percent_savings': 0, 'option_text': 'Royal Jigsaw - 3,99€', 'option_description': '', 'can_get_free_license': '0', 'is_free_license': False, 'price_in_cents_with_discount': 399}]</t>
+  </si>
+  <si>
+    <t>[{'packageid': 668998, 'percent_savings_text': '-40% ', 'percent_savings': 0, 'option_text': 'Holiday Jigsaw Christmas - &lt;span class="discount_original_price"&gt;3,99€&lt;/span&gt; 2,39€', 'option_description': '', 'can_get_free_license': '0', 'is_free_license': False, 'price_in_cents_with_discount': 239}]</t>
+  </si>
+  <si>
+    <t>[{'packageid': 669007, 'percent_savings_text': '-40% ', 'percent_savings': 0, 'option_text': 'Pirate\'s Solitaire - &lt;span class="discount_original_price"&gt;3,99€&lt;/span&gt; 2,39€', 'option_description': '', 'can_get_free_license': '0', 'is_free_license': False, 'price_in_cents_with_discount': 239}]</t>
+  </si>
+  <si>
+    <t>[{'packageid': 668692, 'percent_savings_text': ' ', 'percent_savings': 0, 'option_text': 'Go Fetch! - 6,59€', 'option_description': '', 'can_get_free_license': '0', 'is_free_license': False, 'price_in_cents_with_discount': 659}]</t>
+  </si>
+  <si>
+    <t>[{'packageid': 668697, 'percent_savings_text': '-46% ', 'percent_savings': 0, 'option_text': 'Cat Adventure - &lt;span class="discount_original_price"&gt;0,79€&lt;/span&gt; 0,43€', 'option_description': '', 'can_get_free_license': '0', 'is_free_license': False, 'price_in_cents_with_discount': 43}]</t>
+  </si>
+  <si>
+    <t>[{'packageid': 668716, 'percent_savings_text': '-40% ', 'percent_savings': 0, 'option_text': 'Mirror 2: Project X - Melody of Admiration OST - &lt;span class="discount_original_price"&gt;1,59€&lt;/span&gt; 0,95€', 'option_description': '', 'can_get_free_license': '0', 'is_free_license': False, 'price_in_cents_with_discount': 95}]</t>
+  </si>
+  <si>
+    <t>[{'packageid': 668722, 'percent_savings_text': ' ', 'percent_savings': 0, 'option_text': 'Mirror 2: Project X - Cosplay Album - 1,59€', 'option_description': '', 'can_get_free_license': '0', 'is_free_license': False, 'price_in_cents_with_discount': 159}]</t>
+  </si>
+  <si>
+    <t>[{'packageid': 668760, 'percent_savings_text': ' ', 'percent_savings': 0, 'option_text': 'Squarena - 7,39€', 'option_description': '', 'can_get_free_license': '0', 'is_free_license': False, 'price_in_cents_with_discount': 739}]</t>
+  </si>
+  <si>
+    <t>[{'packageid': 668790, 'percent_savings_text': ' ', 'percent_savings': 0, 'option_text': 'Cute BAR Soundtrack - 1,59€', 'option_description': '', 'can_get_free_license': '0', 'is_free_license': False, 'price_in_cents_with_discount': 159}]</t>
+  </si>
+  <si>
+    <t>[{'packageid': 668812, 'percent_savings_text': ' ', 'percent_savings': 0, 'option_text': '幻想乡妖怪塔防 - 永江衣玖扩展包 - 3,99€', 'option_description': '', 'can_get_free_license': '0', 'is_free_license': False, 'price_in_cents_with_discount': 399}]</t>
+  </si>
+  <si>
+    <t>[{'packageid': 668817, 'percent_savings_text': ' ', 'percent_savings': 0, 'option_text': 'My Cute Girls Soundtrack - 1,59€', 'option_description': '', 'can_get_free_license': '0', 'is_free_license': False, 'price_in_cents_with_discount': 159}]</t>
+  </si>
+  <si>
+    <t>[{'packageid': 668820, 'percent_savings_text': ' ', 'percent_savings': 0, 'option_text': '巨 ~Gigantify~ - 0,79€', 'option_description': '', 'can_get_free_license': '0', 'is_free_license': False, 'price_in_cents_with_discount': 79}]</t>
+  </si>
+  <si>
+    <t>[{'packageid': 668828, 'percent_savings_text': ' ', 'percent_savings': 0, 'option_text': 'Santa Jump - 1,59€', 'option_description': '', 'can_get_free_license': '0', 'is_free_license': False, 'price_in_cents_with_discount': 159}]</t>
+  </si>
+  <si>
+    <t>[{'packageid': 668831, 'percent_savings_text': ' ', 'percent_savings': 0, 'option_text': 'My Cute Girls - Artbook 18+ - 3,29€', 'option_description': '', 'can_get_free_license': '0', 'is_free_license': False, 'price_in_cents_with_discount': 329}]</t>
+  </si>
+  <si>
+    <t>[{'packageid': 668834, 'percent_savings_text': ' ', 'percent_savings': 0, 'option_text': 'Drawer - 3,29€', 'option_description': '', 'can_get_free_license': '0', 'is_free_license': False, 'price_in_cents_with_discount': 329}]</t>
   </si>
 </sst>
 </file>
@@ -374,15 +557,689 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2">
+        <v>1859530</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3">
+        <v>1859540</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4">
+        <v>1859590</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5">
+        <v>1859610</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6">
+        <v>1859630</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7">
+        <v>1859650</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8">
+        <v>1858780</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9">
+        <v>1858870</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10">
+        <v>1858940</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11">
+        <v>1859060</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12">
+        <v>1859100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13">
+        <v>1859110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14">
+        <v>1859140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15">
+        <v>1858260</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16">
+        <v>1858270</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17">
+        <v>1858303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18">
+        <v>1858305</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19">
+        <v>1858400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20">
+        <v>1858490</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21">
+        <v>1858560</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" t="s">
+        <v>57</v>
+      </c>
+      <c r="J22">
+        <v>1858570</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23" t="s">
+        <v>58</v>
+      </c>
+      <c r="J23">
+        <v>1858580</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" t="s">
+        <v>59</v>
+      </c>
+      <c r="J24">
+        <v>1858600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" t="s">
+        <v>60</v>
+      </c>
+      <c r="J25">
+        <v>1858610</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" t="s">
+        <v>61</v>
+      </c>
+      <c r="J26">
+        <v>1858620</v>
       </c>
     </row>
   </sheetData>
